--- a/mock-data/New/pinnacle_pacific_data/Pinnacle_Pacific_Builders_Import.xlsx
+++ b/mock-data/New/pinnacle_pacific_data/Pinnacle_Pacific_Builders_Import.xlsx
@@ -26,18 +26,17 @@
     <sheet name="Time Entries" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="Change Orders" sheetId="18" state="visible" r:id="rId18"/>
     <sheet name="Daily Logs" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Daily Logs Condo" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="RFIs" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Safety Incidents" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Safety Inspections" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Toolbox Talks" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Equipment Assignments" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Equipment Maintenance" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Submittals" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Tasks" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Property Expenses" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Estimates" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Certifications" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="RFIs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Safety Incidents" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Safety Inspections" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Toolbox Talks" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Equipment Assignments" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Equipment Maintenance" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Submittals" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Tasks" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Property Expenses" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Estimates" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Certifications" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -45851,7 +45850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47373,6 +47372,1486 @@
       <c r="G41" t="inlineStr">
         <is>
           <t>DFW Metroplex Airport Terminal 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Interior drywall hanging floors 25-27. Taping crew following on floors 22-24.</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Window wall installation floor 30 - 8 panels set. Sealant application floors 26-28.</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MEP overhead rough-in floors 28-30. Ductwork, sprinkler, and electrical running concurrently.</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Kitchen cabinet installation floors 15-17. Countertop templating floors 18-20.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Elevator cab finish installation Cars 1 &amp; 2. Cars 3 &amp; 4 running on temporary operation.</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Elevator out of service - material hoisting delayed</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Flooring installation floors 10-12 - luxury vinyl plank in units, porcelain tile in corridors.</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Painting floors 19-21 - primer and first coat. Touch-up crew on floors 14-16.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Plumbing fixture trim-out floors 8-10. Faucets, toilets, showerheads installed.</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Fire alarm device installation and wiring floors 22-26. Head-end panel programming started.</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Balcony railing installation floors 20-24. Welding and glass panel setting.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>partly_cloudy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Rooftop amenity deck waterproofing membrane installation. Pool shell shotcrete scheduled next week.</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Elevator out of service - material hoisting delayed</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Lobby marble flooring installation. Reception desk millwork delivered and staged.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Unit punchlist and turnover inspections floors 3-6. 42 units cleared for CO.</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Penthouse custom millwork installation floor 41. Italian marble bathroom finishes floor 42.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Garage floor coating application Level P1. Striping and signage to follow.</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Landscape rough grading and irrigation main line installation along boulevard frontage.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Common area corridor lighting fixture installation floors 7-12. LED commissioning.</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>HVAC system startup and balancing floors 3-15. TAB contractor on site.</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Generator load bank testing. Emergency power transfer switch tested successfully.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Unit appliance installation floors 13-18. Ranges, dishwashers, and refrigerators.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Interior drywall hanging floors 25-27. Taping crew following on floors 22-24.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Window wall installation floor 30 - 8 panels set. Sealant application floors 26-28.</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MEP overhead rough-in floors 28-30. Ductwork, sprinkler, and electrical running concurrently.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Kitchen cabinet installation floors 15-17. Countertop templating floors 18-20.</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>partly_cloudy</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Elevator cab finish installation Cars 1 &amp; 2. Cars 3 &amp; 4 running on temporary operation.</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>City inspector no-show - CO inspection rescheduled</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Flooring installation floors 10-12 - luxury vinyl plank in units, porcelain tile in corridors.</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Painting floors 19-21 - primer and first coat. Touch-up crew on floors 14-16.</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>partly_cloudy</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Plumbing fixture trim-out floors 8-10. Faucets, toilets, showerheads installed.</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>partly_cloudy</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Fire alarm device installation and wiring floors 22-26. Head-end panel programming started.</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Balcony railing installation floors 20-24. Welding and glass panel setting.</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Rooftop amenity deck waterproofing membrane installation. Pool shell shotcrete scheduled next week.</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Exterior work paused due to rain - interior work continued</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Lobby marble flooring installation. Reception desk millwork delivered and staged.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Unit punchlist and turnover inspections floors 3-6. 42 units cleared for CO.</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>partly_cloudy</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Penthouse custom millwork installation floor 41. Italian marble bathroom finishes floor 42.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Garage floor coating application Level P1. Striping and signage to follow.</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>City inspector no-show - CO inspection rescheduled</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Landscape rough grading and irrigation main line installation along boulevard frontage.</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Window panels backordered - installation paused floor 31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>overcast</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Common area corridor lighting fixture installation floors 7-12. LED commissioning.</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-25</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>HVAC system startup and balancing floors 3-15. TAB contractor on site.</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-26</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>windy</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Generator load bank testing. Emergency power transfer switch tested successfully.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>clear</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Unit appliance installation floors 13-18. Ranges, dishwashers, and refrigerators.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
         </is>
       </c>
     </row>
@@ -47630,1542 +49109,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>log_date</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>weather_conditions</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>temperature</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>work_performed</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>safety_incidents</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>delays</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2026-01-05</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Interior drywall hanging floors 25-27. Taping crew following on floors 22-24.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2026-01-06</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Window wall installation floor 30 - 8 panels set. Sealant application floors 26-28.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2026-01-07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MEP overhead rough-in floors 28-30. Ductwork, sprinkler, and electrical running concurrently.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2026-01-08</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kitchen cabinet installation floors 15-17. Countertop templating floors 18-20.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2026-01-09</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Elevator cab finish installation Cars 1 &amp; 2. Cars 3 &amp; 4 running on temporary operation.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elevator out of service - material hoisting delayed</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2026-01-12</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Flooring installation floors 10-12 - luxury vinyl plank in units, porcelain tile in corridors.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2026-01-13</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Painting floors 19-21 - primer and first coat. Touch-up crew on floors 14-16.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Plumbing fixture trim-out floors 8-10. Faucets, toilets, showerheads installed.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2026-01-15</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Fire alarm device installation and wiring floors 22-26. Head-end panel programming started.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2026-01-16</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Balcony railing installation floors 20-24. Welding and glass panel setting.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2026-01-19</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>partly_cloudy</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Rooftop amenity deck waterproofing membrane installation. Pool shell shotcrete scheduled next week.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Elevator out of service - material hoisting delayed</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2026-01-20</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Lobby marble flooring installation. Reception desk millwork delivered and staged.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Unit punchlist and turnover inspections floors 3-6. 42 units cleared for CO.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2026-01-22</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Penthouse custom millwork installation floor 41. Italian marble bathroom finishes floor 42.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2026-01-23</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Garage floor coating application Level P1. Striping and signage to follow.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2026-01-26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Landscape rough grading and irrigation main line installation along boulevard frontage.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2026-01-27</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Common area corridor lighting fixture installation floors 7-12. LED commissioning.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2026-01-28</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>HVAC system startup and balancing floors 3-15. TAB contractor on site.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2026-01-29</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Generator load bank testing. Emergency power transfer switch tested successfully.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2026-01-30</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Unit appliance installation floors 13-18. Ranges, dishwashers, and refrigerators.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Interior drywall hanging floors 25-27. Taping crew following on floors 22-24.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Window wall installation floor 30 - 8 panels set. Sealant application floors 26-28.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2026-02-04</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>MEP overhead rough-in floors 28-30. Ductwork, sprinkler, and electrical running concurrently.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2026-02-05</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Kitchen cabinet installation floors 15-17. Countertop templating floors 18-20.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>partly_cloudy</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Elevator cab finish installation Cars 1 &amp; 2. Cars 3 &amp; 4 running on temporary operation.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>City inspector no-show - CO inspection rescheduled</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Flooring installation floors 10-12 - luxury vinyl plank in units, porcelain tile in corridors.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2026-02-10</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Painting floors 19-21 - primer and first coat. Touch-up crew on floors 14-16.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2026-02-11</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>partly_cloudy</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Plumbing fixture trim-out floors 8-10. Faucets, toilets, showerheads installed.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>partly_cloudy</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Fire alarm device installation and wiring floors 22-26. Head-end panel programming started.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2026-02-13</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Balcony railing installation floors 20-24. Welding and glass panel setting.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2026-02-16</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Rooftop amenity deck waterproofing membrane installation. Pool shell shotcrete scheduled next week.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Exterior work paused due to rain - interior work continued</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Lobby marble flooring installation. Reception desk millwork delivered and staged.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2026-02-18</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Unit punchlist and turnover inspections floors 3-6. 42 units cleared for CO.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2026-02-19</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>partly_cloudy</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Penthouse custom millwork installation floor 41. Italian marble bathroom finishes floor 42.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Garage floor coating application Level P1. Striping and signage to follow.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>City inspector no-show - CO inspection rescheduled</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2026-02-23</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Landscape rough grading and irrigation main line installation along boulevard frontage.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Window panels backordered - installation paused floor 31</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2026-02-24</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>overcast</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Common area corridor lighting fixture installation floors 7-12. LED commissioning.</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2026-02-25</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>HVAC system startup and balancing floors 3-15. TAB contractor on site.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2026-02-26</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>windy</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Generator load bank testing. Emergency power transfer switch tested successfully.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2026-02-27</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>clear</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Unit appliance installation floors 13-18. Ranges, dishwashers, and refrigerators.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49746,7 +49689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -50227,7 +50170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -50838,7 +50781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -51634,7 +51577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -52425,7 +52368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -53116,7 +53059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -53597,7 +53540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -56765,7 +56708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -57324,6 +57267,1033 @@
           <t>Pinnacle Bay Condominiums</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>estimate_number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>total_cost</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>total_price</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>margin_pct</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>overhead_pct</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>profit_pct</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>project_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EST-DFW-001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>T6 Structural Steel Package</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Complete structural steel fabrication and erection for Terminal 6 concourse, gates, and canopy</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68000000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78200000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>DFW Metroplex Airport Terminal 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>EST-DFW-002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>T6 MEP Systems Package</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mechanical, electrical, and plumbing systems for entire Terminal 6 complex</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78000000</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>93600000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>DFW Metroplex Airport Terminal 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EST-DFW-003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>T6 Curtain Wall &amp; Glazing</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Full building envelope including curtain wall, storefront, and skylights</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>42000000</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>50400000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>DFW Metroplex Airport Terminal 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EST-DFW-004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T6 Baggage Handling System</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Automated baggage handling including conveyors, sorting, and screening integration</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>in_review</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35000000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>42000000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>DFW Metroplex Airport Terminal 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EST-DFW-005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>T6 People Mover System</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Automated people mover guideway, vehicles, and stations</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>in_review</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22000000</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>28600000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>DFW Metroplex Airport Terminal 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>EST-DFW-006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>T6 Interior Finishes Package</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Flooring, ceiling, millwork, and specialty finishes throughout terminal</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18000000</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>22500000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>DFW Metroplex Airport Terminal 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>EST-PBC-001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>PBC Tower Structure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cast-in-place concrete tower core and post-tensioned floor slabs floors 3-44</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>38000000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>45600000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>EST-PBC-002</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PBC MEP Package</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Complete mechanical, electrical, plumbing, and fire protection for 500 units + common areas</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24000000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30000000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>EST-PBC-003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PBC Interior Fit-Out</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Unit interiors including drywall, paint, flooring, cabinetry, and fixtures for all 500 units</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22000000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>28600000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>EST-PBC-004</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>PBC Window Wall System</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>High-performance window wall system for 42-story tower including penthouse custom glazing</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>19200000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>EST-PBC-005</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PBC Rooftop Amenities</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pool, outdoor kitchen, fire pit, lounge areas, and landscaping on amenity deck</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>in_review</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4500000</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5850000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pinnacle Bay Condominiums</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EST-PIPE-001</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DFW Cargo Terminal - Structural</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Steel structure for 200,000 SF cargo facility with cold chain wing</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>32000000</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>40000000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EST-PIPE-002</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DFW Cargo Terminal - MEP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>HVAC, electrical, fire protection for cargo facility including cold chain refrigeration</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>28000000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>35000000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EST-PIPE-003</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Frisco Medical Campus - Building A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3-story medical office building with specialty clinic fit-out</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>in_review</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12000000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>15000000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EST-PIPE-004</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Frisco Medical Campus - Central Plant</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Central energy plant serving 3-building campus</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8500000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10625000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EST-PIPE-005</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Plano Mixed-Use Tower - Structure</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>28-story post-tensioned concrete tower with 3-level podium</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22000000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>28600000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EST-PIPE-006</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Plano Mixed-Use - Unit Interiors</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>380 residential units fit-out with premium finishes package</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>15000000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>19500000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EST-PIPE-007</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Convention Center - Historic Renovation</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Selective demolition and restoration of existing convention center</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>35000000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>45500000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EST-PIPE-008</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Arlington ISD - School Complex</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>K-12 campus with 3 buildings including athletic facilities</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>draft</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>18000000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>23400000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -57469,1033 +58439,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>estimate_number</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>total_cost</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>total_price</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>margin_pct</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>overhead_pct</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>profit_pct</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>project_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>EST-DFW-001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>T6 Structural Steel Package</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Complete structural steel fabrication and erection for Terminal 6 concourse, gates, and canopy</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68000000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>78200000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>DFW Metroplex Airport Terminal 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>EST-DFW-002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>T6 MEP Systems Package</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mechanical, electrical, and plumbing systems for entire Terminal 6 complex</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78000000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>93600000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>DFW Metroplex Airport Terminal 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>EST-DFW-003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>T6 Curtain Wall &amp; Glazing</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Full building envelope including curtain wall, storefront, and skylights</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>42000000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50400000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>DFW Metroplex Airport Terminal 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EST-DFW-004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>T6 Baggage Handling System</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Automated baggage handling including conveyors, sorting, and screening integration</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>in_review</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>35000000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>42000000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>DFW Metroplex Airport Terminal 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>EST-DFW-005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>T6 People Mover System</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Automated people mover guideway, vehicles, and stations</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>in_review</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22000000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28600000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>DFW Metroplex Airport Terminal 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>EST-DFW-006</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>T6 Interior Finishes Package</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Flooring, ceiling, millwork, and specialty finishes throughout terminal</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>18000000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>22500000</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>DFW Metroplex Airport Terminal 6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>EST-PBC-001</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PBC Tower Structure</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Cast-in-place concrete tower core and post-tensioned floor slabs floors 3-44</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>38000000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>45600000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>EST-PBC-002</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>PBC MEP Package</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Complete mechanical, electrical, plumbing, and fire protection for 500 units + common areas</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24000000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>30000000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>EST-PBC-003</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PBC Interior Fit-Out</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Unit interiors including drywall, paint, flooring, cabinetry, and fixtures for all 500 units</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>22000000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>28600000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>EST-PBC-004</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>PBC Window Wall System</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>High-performance window wall system for 42-story tower including penthouse custom glazing</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>approved</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16000000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>19200000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>EST-PBC-005</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>PBC Rooftop Amenities</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Pool, outdoor kitchen, fire pit, lounge areas, and landscaping on amenity deck</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>in_review</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4500000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5850000</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Pinnacle Bay Condominiums</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>EST-PIPE-001</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DFW Cargo Terminal - Structural</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Steel structure for 200,000 SF cargo facility with cold chain wing</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>32000000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>40000000</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>EST-PIPE-002</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DFW Cargo Terminal - MEP</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>HVAC, electrical, fire protection for cargo facility including cold chain refrigeration</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>28000000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>35000000</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>EST-PIPE-003</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Frisco Medical Campus - Building A</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3-story medical office building with specialty clinic fit-out</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>in_review</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>12000000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>15000000</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>EST-PIPE-004</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Frisco Medical Campus - Central Plant</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Central energy plant serving 3-building campus</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8500000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>10625000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>EST-PIPE-005</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Plano Mixed-Use Tower - Structure</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>28-story post-tensioned concrete tower with 3-level podium</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>22000000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>28600000</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EST-PIPE-006</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Plano Mixed-Use - Unit Interiors</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>380 residential units fit-out with premium finishes package</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>15000000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>19500000</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>EST-PIPE-007</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Convention Center - Historic Renovation</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Selective demolition and restoration of existing convention center</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>35000000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>45500000</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>EST-PIPE-008</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Arlington ISD - School Complex</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>K-12 campus with 3 buildings including athletic facilities</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>draft</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>18000000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>23400000</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
